--- a/테이블/전투/방어/내부 조건 테이블.xlsx
+++ b/테이블/전투/방어/내부 조건 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\전투\방어\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7995512B-7AD2-4859-BCF9-E5A541E768AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC867DA-B1FD-4E0D-9F1D-4864C9B730F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인 정의" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>속성 명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1C4072-5AB1-4B00-B69A-232BCC2BB72D}">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -674,23 +674,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C19B3A-9DE6-4959-8646-89E4535BEFF0}">
-  <dimension ref="B1:H1"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
         <v>테이블 id</v>
@@ -703,21 +703,27 @@
         <f t="array" aca="1" ref="D1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
         <v>내부 조건 유형</v>
       </c>
-      <c r="E1" t="str" cm="1">
-        <f t="array" aca="1" ref="E1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>속성 없음</v>
-      </c>
-      <c r="F1" t="str" cm="1">
-        <f t="array" aca="1" ref="F1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>속성 없음</v>
-      </c>
-      <c r="G1" t="str" cm="1">
-        <f t="array" aca="1" ref="G1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>속성 없음</v>
-      </c>
-      <c r="H1" t="str" cm="1">
-        <f t="array" aca="1" ref="H1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>속성 없음</v>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
